--- a/אקסל שנשמרו/updated_gift_list (1).xlsx
+++ b/אקסל שנשמרו/updated_gift_list (1).xlsx
@@ -573,7 +573,11 @@
           <t>afriyat</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -859,11 +863,7 @@
           <t>band</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1292,11 +1292,7 @@
           <t>de levi</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="C65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1582,11 +1578,7 @@
           <t>friedrich</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="C87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1863,11 +1855,7 @@
           <t>halevi</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="C108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4233,11 +4221,7 @@
           <t>zriham</t>
         </is>
       </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="C290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
